--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Serping1-Selp.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Serping1-Selp.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,9 +82,15 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>M2</t>
   </si>
   <si>
+    <t>Neutro</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -92,9 +98,6 @@
   </si>
   <si>
     <t>Selp</t>
-  </si>
-  <si>
-    <t>Neutro</t>
   </si>
 </sst>
 </file>
@@ -452,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.69494024455875</v>
+        <v>7.744420666666667</v>
       </c>
       <c r="H2">
-        <v>5.69494024455875</v>
+        <v>23.233262</v>
       </c>
       <c r="I2">
-        <v>0.01818250298747938</v>
+        <v>0.02402057549124297</v>
       </c>
       <c r="J2">
-        <v>0.01818250298747938</v>
+        <v>0.02402057549124297</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.46407048654187</v>
+        <v>21.110155</v>
       </c>
       <c r="N2">
-        <v>5.46407048654187</v>
+        <v>63.330465</v>
       </c>
       <c r="O2">
-        <v>0.3748993737432033</v>
+        <v>0.6828970503646842</v>
       </c>
       <c r="P2">
-        <v>0.3748993737432033</v>
+        <v>0.6828970503646841</v>
       </c>
       <c r="Q2">
-        <v>31.11755491291301</v>
+        <v>163.4859206585367</v>
       </c>
       <c r="R2">
-        <v>31.11755491291301</v>
+        <v>1471.37328592683</v>
       </c>
       <c r="S2">
-        <v>0.006816608983089943</v>
+        <v>0.01640358015103205</v>
       </c>
       <c r="T2">
-        <v>0.006816608983089943</v>
+        <v>0.01640358015103204</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,433 +590,1797 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.69494024455875</v>
+        <v>7.744420666666667</v>
       </c>
       <c r="H3">
-        <v>5.69494024455875</v>
+        <v>23.233262</v>
       </c>
       <c r="I3">
-        <v>0.01818250298747938</v>
+        <v>0.02402057549124297</v>
       </c>
       <c r="J3">
-        <v>0.01818250298747938</v>
+        <v>0.02402057549124297</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>9.11069508851247</v>
+        <v>0.3162533333333333</v>
       </c>
       <c r="N3">
-        <v>9.11069508851247</v>
+        <v>0.94876</v>
       </c>
       <c r="O3">
-        <v>0.6251006262567967</v>
+        <v>0.01023054868622862</v>
       </c>
       <c r="P3">
-        <v>0.6251006262567967</v>
+        <v>0.01023054868622862</v>
       </c>
       <c r="Q3">
-        <v>51.88486411547341</v>
+        <v>2.449198850568889</v>
       </c>
       <c r="R3">
-        <v>51.88486411547341</v>
+        <v>22.04278965512</v>
       </c>
       <c r="S3">
-        <v>0.01136589400438944</v>
+        <v>0.0002457436670343912</v>
       </c>
       <c r="T3">
-        <v>0.01136589400438944</v>
+        <v>0.0002457436670343911</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>212.848688053281</v>
+        <v>7.744420666666667</v>
       </c>
       <c r="H4">
-        <v>212.848688053281</v>
+        <v>23.233262</v>
       </c>
       <c r="I4">
-        <v>0.6795719955284113</v>
+        <v>0.02402057549124297</v>
       </c>
       <c r="J4">
-        <v>0.6795719955284113</v>
+        <v>0.02402057549124297</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>5.46407048654187</v>
+        <v>0.131037</v>
       </c>
       <c r="N4">
-        <v>5.46407048654187</v>
+        <v>0.393111</v>
       </c>
       <c r="O4">
-        <v>0.3748993737432033</v>
+        <v>0.004238944753775475</v>
       </c>
       <c r="P4">
-        <v>0.3748993737432033</v>
+        <v>0.004238944753775475</v>
       </c>
       <c r="Q4">
-        <v>1163.02023449109</v>
+        <v>1.014805650898</v>
       </c>
       <c r="R4">
-        <v>1163.02023449109</v>
+        <v>9.133250858082</v>
       </c>
       <c r="S4">
-        <v>0.2547711155370204</v>
+        <v>0.0001018218924612721</v>
       </c>
       <c r="T4">
-        <v>0.2547711155370204</v>
+        <v>0.0001018218924612721</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>212.848688053281</v>
+        <v>7.744420666666667</v>
       </c>
       <c r="H5">
-        <v>212.848688053281</v>
+        <v>23.233262</v>
       </c>
       <c r="I5">
-        <v>0.6795719955284113</v>
+        <v>0.02402057549124297</v>
       </c>
       <c r="J5">
-        <v>0.6795719955284113</v>
+        <v>0.02402057549124297</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>9.11069508851247</v>
+        <v>9.283255666666667</v>
       </c>
       <c r="N5">
-        <v>9.11069508851247</v>
+        <v>27.849767</v>
       </c>
       <c r="O5">
-        <v>0.6251006262567967</v>
+        <v>0.3003060807724011</v>
       </c>
       <c r="P5">
-        <v>0.6251006262567967</v>
+        <v>0.3003060807724011</v>
       </c>
       <c r="Q5">
-        <v>1939.19949684335</v>
+        <v>71.89343703888377</v>
       </c>
       <c r="R5">
-        <v>1939.19949684335</v>
+        <v>647.040933349954</v>
       </c>
       <c r="S5">
-        <v>0.424800879991391</v>
+        <v>0.007213524883672768</v>
       </c>
       <c r="T5">
-        <v>0.424800879991391</v>
+        <v>0.007213524883672768</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
         <v>25</v>
       </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.04466396637793</v>
+        <v>7.744420666666667</v>
       </c>
       <c r="H6">
-        <v>1.04466396637793</v>
+        <v>23.233262</v>
       </c>
       <c r="I6">
-        <v>0.003335347672475972</v>
+        <v>0.02402057549124297</v>
       </c>
       <c r="J6">
-        <v>0.003335347672475972</v>
+        <v>0.02402057549124297</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>5.46407048654187</v>
+        <v>0.07194533333333333</v>
       </c>
       <c r="N6">
-        <v>5.46407048654187</v>
+        <v>0.215836</v>
       </c>
       <c r="O6">
-        <v>0.3748993737432033</v>
+        <v>0.00232737542291079</v>
       </c>
       <c r="P6">
-        <v>0.3748993737432033</v>
+        <v>0.00232737542291079</v>
       </c>
       <c r="Q6">
-        <v>5.708117547039416</v>
+        <v>0.5571749263368889</v>
       </c>
       <c r="R6">
-        <v>5.708117547039416</v>
+        <v>5.014574337032</v>
       </c>
       <c r="S6">
-        <v>0.001250419753627093</v>
+        <v>5.590489704249215E-05</v>
       </c>
       <c r="T6">
-        <v>0.001250419753627093</v>
+        <v>5.590489704249215E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.04466396637793</v>
+        <v>215.379898</v>
       </c>
       <c r="H7">
-        <v>1.04466396637793</v>
+        <v>646.139694</v>
       </c>
       <c r="I7">
-        <v>0.003335347672475972</v>
+        <v>0.6680356506811497</v>
       </c>
       <c r="J7">
-        <v>0.003335347672475972</v>
+        <v>0.6680356506811497</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>9.11069508851247</v>
+        <v>21.110155</v>
       </c>
       <c r="N7">
-        <v>9.11069508851247</v>
+        <v>63.330465</v>
       </c>
       <c r="O7">
-        <v>0.6251006262567967</v>
+        <v>0.6828970503646842</v>
       </c>
       <c r="P7">
-        <v>0.6251006262567967</v>
+        <v>0.6828970503646841</v>
       </c>
       <c r="Q7">
-        <v>9.517614867625364</v>
+        <v>4546.70303066419</v>
       </c>
       <c r="R7">
-        <v>9.517614867625364</v>
+        <v>40920.3272759777</v>
       </c>
       <c r="S7">
-        <v>0.00208492791884888</v>
+        <v>0.4561995753886096</v>
       </c>
       <c r="T7">
-        <v>0.00208492791884888</v>
+        <v>0.4561995753886096</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>93.62162435069131</v>
+        <v>215.379898</v>
       </c>
       <c r="H8">
-        <v>93.62162435069131</v>
+        <v>646.139694</v>
       </c>
       <c r="I8">
-        <v>0.2989101538116334</v>
+        <v>0.6680356506811497</v>
       </c>
       <c r="J8">
-        <v>0.2989101538116334</v>
+        <v>0.6680356506811497</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>5.46407048654187</v>
+        <v>0.3162533333333333</v>
       </c>
       <c r="N8">
-        <v>5.46407048654187</v>
+        <v>0.94876</v>
       </c>
       <c r="O8">
-        <v>0.3748993737432033</v>
+        <v>0.01023054868622862</v>
       </c>
       <c r="P8">
-        <v>0.3748993737432033</v>
+        <v>0.01023054868622862</v>
       </c>
       <c r="Q8">
-        <v>511.555154516722</v>
+        <v>68.11461067549334</v>
       </c>
       <c r="R8">
-        <v>511.555154516722</v>
+        <v>613.03149607944</v>
       </c>
       <c r="S8">
-        <v>0.1120612294694659</v>
+        <v>0.00683437124842992</v>
       </c>
       <c r="T8">
-        <v>0.1120612294694659</v>
+        <v>0.006834371248429918</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="B9" t="s">
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>215.379898</v>
+      </c>
+      <c r="H9">
+        <v>646.139694</v>
+      </c>
+      <c r="I9">
+        <v>0.6680356506811497</v>
+      </c>
+      <c r="J9">
+        <v>0.6680356506811497</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.131037</v>
+      </c>
+      <c r="N9">
+        <v>0.393111</v>
+      </c>
+      <c r="O9">
+        <v>0.004238944753775475</v>
+      </c>
+      <c r="P9">
+        <v>0.004238944753775475</v>
+      </c>
+      <c r="Q9">
+        <v>28.222735694226</v>
+      </c>
+      <c r="R9">
+        <v>254.004621248034</v>
+      </c>
+      <c r="S9">
+        <v>0.002831766216789845</v>
+      </c>
+      <c r="T9">
+        <v>0.002831766216789845</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="s">
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>215.379898</v>
+      </c>
+      <c r="H10">
+        <v>646.139694</v>
+      </c>
+      <c r="I10">
+        <v>0.6680356506811497</v>
+      </c>
+      <c r="J10">
+        <v>0.6680356506811497</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>9.283255666666667</v>
+      </c>
+      <c r="N10">
+        <v>27.849767</v>
+      </c>
+      <c r="O10">
+        <v>0.3003060807724011</v>
+      </c>
+      <c r="P10">
+        <v>0.3003060807724011</v>
+      </c>
+      <c r="Q10">
+        <v>1999.426658594589</v>
+      </c>
+      <c r="R10">
+        <v>17994.8399273513</v>
+      </c>
+      <c r="S10">
+        <v>0.2006151680722969</v>
+      </c>
+      <c r="T10">
+        <v>0.2006151680722968</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
         <v>25</v>
       </c>
-      <c r="D9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>93.62162435069131</v>
-      </c>
-      <c r="H9">
-        <v>93.62162435069131</v>
-      </c>
-      <c r="I9">
-        <v>0.2989101538116334</v>
-      </c>
-      <c r="J9">
-        <v>0.2989101538116334</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>9.11069508851247</v>
-      </c>
-      <c r="N9">
-        <v>9.11069508851247</v>
-      </c>
-      <c r="O9">
-        <v>0.6251006262567967</v>
-      </c>
-      <c r="P9">
-        <v>0.6251006262567967</v>
-      </c>
-      <c r="Q9">
-        <v>852.9580731504027</v>
-      </c>
-      <c r="R9">
-        <v>852.9580731504027</v>
-      </c>
-      <c r="S9">
-        <v>0.1868489243421675</v>
-      </c>
-      <c r="T9">
-        <v>0.1868489243421675</v>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>215.379898</v>
+      </c>
+      <c r="H11">
+        <v>646.139694</v>
+      </c>
+      <c r="I11">
+        <v>0.6680356506811497</v>
+      </c>
+      <c r="J11">
+        <v>0.6680356506811497</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M11">
+        <v>0.07194533333333333</v>
+      </c>
+      <c r="N11">
+        <v>0.215836</v>
+      </c>
+      <c r="O11">
+        <v>0.00232737542291079</v>
+      </c>
+      <c r="P11">
+        <v>0.00232737542291079</v>
+      </c>
+      <c r="Q11">
+        <v>15.49557855490933</v>
+      </c>
+      <c r="R11">
+        <v>139.460206994184</v>
+      </c>
+      <c r="S11">
+        <v>0.001554769755023525</v>
+      </c>
+      <c r="T11">
+        <v>0.001554769755023525</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.3580746666666667</v>
+      </c>
+      <c r="H12">
+        <v>1.074224</v>
+      </c>
+      <c r="I12">
+        <v>0.001110626595891054</v>
+      </c>
+      <c r="J12">
+        <v>0.001110626595891054</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>21.110155</v>
+      </c>
+      <c r="N12">
+        <v>63.330465</v>
+      </c>
+      <c r="O12">
+        <v>0.6828970503646842</v>
+      </c>
+      <c r="P12">
+        <v>0.6828970503646841</v>
+      </c>
+      <c r="Q12">
+        <v>7.559011714906667</v>
+      </c>
+      <c r="R12">
+        <v>68.03110543416</v>
+      </c>
+      <c r="S12">
+        <v>0.000758443626390571</v>
+      </c>
+      <c r="T12">
+        <v>0.0007584436263905708</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.3580746666666667</v>
+      </c>
+      <c r="H13">
+        <v>1.074224</v>
+      </c>
+      <c r="I13">
+        <v>0.001110626595891054</v>
+      </c>
+      <c r="J13">
+        <v>0.001110626595891054</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.3162533333333333</v>
+      </c>
+      <c r="N13">
+        <v>0.94876</v>
+      </c>
+      <c r="O13">
+        <v>0.01023054868622862</v>
+      </c>
+      <c r="P13">
+        <v>0.01023054868622862</v>
+      </c>
+      <c r="Q13">
+        <v>0.1132423069155556</v>
+      </c>
+      <c r="R13">
+        <v>1.01918076224</v>
+      </c>
+      <c r="S13">
+        <v>1.136231946148379E-05</v>
+      </c>
+      <c r="T13">
+        <v>1.136231946148379E-05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>0.3580746666666667</v>
+      </c>
+      <c r="H14">
+        <v>1.074224</v>
+      </c>
+      <c r="I14">
+        <v>0.001110626595891054</v>
+      </c>
+      <c r="J14">
+        <v>0.001110626595891054</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.131037</v>
+      </c>
+      <c r="N14">
+        <v>0.393111</v>
+      </c>
+      <c r="O14">
+        <v>0.004238944753775475</v>
+      </c>
+      <c r="P14">
+        <v>0.004238944753775475</v>
+      </c>
+      <c r="Q14">
+        <v>0.046921030096</v>
+      </c>
+      <c r="R14">
+        <v>0.422289270864</v>
+      </c>
+      <c r="S14">
+        <v>4.707884782055899E-06</v>
+      </c>
+      <c r="T14">
+        <v>4.707884782055899E-06</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.3580746666666667</v>
+      </c>
+      <c r="H15">
+        <v>1.074224</v>
+      </c>
+      <c r="I15">
+        <v>0.001110626595891054</v>
+      </c>
+      <c r="J15">
+        <v>0.001110626595891054</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>9.283255666666667</v>
+      </c>
+      <c r="N15">
+        <v>27.849767</v>
+      </c>
+      <c r="O15">
+        <v>0.3003060807724011</v>
+      </c>
+      <c r="P15">
+        <v>0.3003060807724011</v>
+      </c>
+      <c r="Q15">
+        <v>3.324098678423112</v>
+      </c>
+      <c r="R15">
+        <v>29.916888105808</v>
+      </c>
+      <c r="S15">
+        <v>0.0003335279202136358</v>
+      </c>
+      <c r="T15">
+        <v>0.0003335279202136357</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.3580746666666667</v>
+      </c>
+      <c r="H16">
+        <v>1.074224</v>
+      </c>
+      <c r="I16">
+        <v>0.001110626595891054</v>
+      </c>
+      <c r="J16">
+        <v>0.001110626595891054</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.07194533333333333</v>
+      </c>
+      <c r="N16">
+        <v>0.215836</v>
+      </c>
+      <c r="O16">
+        <v>0.00232737542291079</v>
+      </c>
+      <c r="P16">
+        <v>0.00232737542291079</v>
+      </c>
+      <c r="Q16">
+        <v>0.02576180125155556</v>
+      </c>
+      <c r="R16">
+        <v>0.231856211264</v>
+      </c>
+      <c r="S16">
+        <v>2.584845043307913E-06</v>
+      </c>
+      <c r="T16">
+        <v>2.584845043307913E-06</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1.066806333333333</v>
+      </c>
+      <c r="H17">
+        <v>3.200419</v>
+      </c>
+      <c r="I17">
+        <v>0.003308872692655397</v>
+      </c>
+      <c r="J17">
+        <v>0.003308872692655397</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>21.110155</v>
+      </c>
+      <c r="N17">
+        <v>63.330465</v>
+      </c>
+      <c r="O17">
+        <v>0.6828970503646842</v>
+      </c>
+      <c r="P17">
+        <v>0.6828970503646841</v>
+      </c>
+      <c r="Q17">
+        <v>22.52044705164833</v>
+      </c>
+      <c r="R17">
+        <v>202.684023464835</v>
+      </c>
+      <c r="S17">
+        <v>0.002259619401846621</v>
+      </c>
+      <c r="T17">
+        <v>0.002259619401846621</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1.066806333333333</v>
+      </c>
+      <c r="H18">
+        <v>3.200419</v>
+      </c>
+      <c r="I18">
+        <v>0.003308872692655397</v>
+      </c>
+      <c r="J18">
+        <v>0.003308872692655397</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M18">
+        <v>0.3162533333333333</v>
+      </c>
+      <c r="N18">
+        <v>0.94876</v>
+      </c>
+      <c r="O18">
+        <v>0.01023054868622862</v>
+      </c>
+      <c r="P18">
+        <v>0.01023054868622862</v>
+      </c>
+      <c r="Q18">
+        <v>0.3373810589377778</v>
+      </c>
+      <c r="R18">
+        <v>3.03642953044</v>
+      </c>
+      <c r="S18">
+        <v>3.385158317874344E-05</v>
+      </c>
+      <c r="T18">
+        <v>3.385158317874344E-05</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1.066806333333333</v>
+      </c>
+      <c r="H19">
+        <v>3.200419</v>
+      </c>
+      <c r="I19">
+        <v>0.003308872692655397</v>
+      </c>
+      <c r="J19">
+        <v>0.003308872692655397</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M19">
+        <v>0.131037</v>
+      </c>
+      <c r="N19">
+        <v>0.393111</v>
+      </c>
+      <c r="O19">
+        <v>0.004238944753775475</v>
+      </c>
+      <c r="P19">
+        <v>0.004238944753775475</v>
+      </c>
+      <c r="Q19">
+        <v>0.139791101501</v>
+      </c>
+      <c r="R19">
+        <v>1.258119913509</v>
+      </c>
+      <c r="S19">
+        <v>1.402612854144252E-05</v>
+      </c>
+      <c r="T19">
+        <v>1.402612854144253E-05</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>1.066806333333333</v>
+      </c>
+      <c r="H20">
+        <v>3.200419</v>
+      </c>
+      <c r="I20">
+        <v>0.003308872692655397</v>
+      </c>
+      <c r="J20">
+        <v>0.003308872692655397</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>9.283255666666667</v>
+      </c>
+      <c r="N20">
+        <v>27.849767</v>
+      </c>
+      <c r="O20">
+        <v>0.3003060807724011</v>
+      </c>
+      <c r="P20">
+        <v>0.3003060807724011</v>
+      </c>
+      <c r="Q20">
+        <v>9.903435939152557</v>
+      </c>
+      <c r="R20">
+        <v>89.130923452373</v>
+      </c>
+      <c r="S20">
+        <v>0.000993674590106164</v>
+      </c>
+      <c r="T20">
+        <v>0.000993674590106164</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>1.066806333333333</v>
+      </c>
+      <c r="H21">
+        <v>3.200419</v>
+      </c>
+      <c r="I21">
+        <v>0.003308872692655397</v>
+      </c>
+      <c r="J21">
+        <v>0.003308872692655397</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M21">
+        <v>0.07194533333333333</v>
+      </c>
+      <c r="N21">
+        <v>0.215836</v>
+      </c>
+      <c r="O21">
+        <v>0.00232737542291079</v>
+      </c>
+      <c r="P21">
+        <v>0.00232737542291079</v>
+      </c>
+      <c r="Q21">
+        <v>0.07675173725377778</v>
+      </c>
+      <c r="R21">
+        <v>0.690765635284</v>
+      </c>
+      <c r="S21">
+        <v>7.700988982426819E-06</v>
+      </c>
+      <c r="T21">
+        <v>7.700988982426819E-06</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G22">
+        <v>0.7716893333333333</v>
+      </c>
+      <c r="H22">
+        <v>2.315068</v>
+      </c>
+      <c r="I22">
+        <v>0.002393519500677988</v>
+      </c>
+      <c r="J22">
+        <v>0.002393519500677988</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>21.110155</v>
+      </c>
+      <c r="N22">
+        <v>63.330465</v>
+      </c>
+      <c r="O22">
+        <v>0.6828970503646842</v>
+      </c>
+      <c r="P22">
+        <v>0.6828970503646841</v>
+      </c>
+      <c r="Q22">
+        <v>16.29048143851333</v>
+      </c>
+      <c r="R22">
+        <v>146.61433294662</v>
+      </c>
+      <c r="S22">
+        <v>0.00163452740700335</v>
+      </c>
+      <c r="T22">
+        <v>0.001634527407003349</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G23">
+        <v>0.7716893333333333</v>
+      </c>
+      <c r="H23">
+        <v>2.315068</v>
+      </c>
+      <c r="I23">
+        <v>0.002393519500677988</v>
+      </c>
+      <c r="J23">
+        <v>0.002393519500677988</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M23">
+        <v>0.3162533333333333</v>
+      </c>
+      <c r="N23">
+        <v>0.94876</v>
+      </c>
+      <c r="O23">
+        <v>0.01023054868622862</v>
+      </c>
+      <c r="P23">
+        <v>0.01023054868622862</v>
+      </c>
+      <c r="Q23">
+        <v>0.2440493239644445</v>
+      </c>
+      <c r="R23">
+        <v>2.19644391568</v>
+      </c>
+      <c r="S23">
+        <v>2.448701778312378E-05</v>
+      </c>
+      <c r="T23">
+        <v>2.448701778312378E-05</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G24">
+        <v>0.7716893333333333</v>
+      </c>
+      <c r="H24">
+        <v>2.315068</v>
+      </c>
+      <c r="I24">
+        <v>0.002393519500677988</v>
+      </c>
+      <c r="J24">
+        <v>0.002393519500677988</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M24">
+        <v>0.131037</v>
+      </c>
+      <c r="N24">
+        <v>0.393111</v>
+      </c>
+      <c r="O24">
+        <v>0.004238944753775475</v>
+      </c>
+      <c r="P24">
+        <v>0.004238944753775475</v>
+      </c>
+      <c r="Q24">
+        <v>0.101119855172</v>
+      </c>
+      <c r="R24">
+        <v>0.910078696548</v>
+      </c>
+      <c r="S24">
+        <v>1.014599693045825E-05</v>
+      </c>
+      <c r="T24">
+        <v>1.014599693045825E-05</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G25">
+        <v>0.7716893333333333</v>
+      </c>
+      <c r="H25">
+        <v>2.315068</v>
+      </c>
+      <c r="I25">
+        <v>0.002393519500677988</v>
+      </c>
+      <c r="J25">
+        <v>0.002393519500677988</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>9.283255666666667</v>
+      </c>
+      <c r="N25">
+        <v>27.849767</v>
+      </c>
+      <c r="O25">
+        <v>0.3003060807724011</v>
+      </c>
+      <c r="P25">
+        <v>0.3003060807724011</v>
+      </c>
+      <c r="Q25">
+        <v>7.16378937657289</v>
+      </c>
+      <c r="R25">
+        <v>64.474104389156</v>
+      </c>
+      <c r="S25">
+        <v>0.0007187884605009211</v>
+      </c>
+      <c r="T25">
+        <v>0.000718788460500921</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G26">
+        <v>0.7716893333333333</v>
+      </c>
+      <c r="H26">
+        <v>2.315068</v>
+      </c>
+      <c r="I26">
+        <v>0.002393519500677988</v>
+      </c>
+      <c r="J26">
+        <v>0.002393519500677988</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M26">
+        <v>0.07194533333333333</v>
+      </c>
+      <c r="N26">
+        <v>0.215836</v>
+      </c>
+      <c r="O26">
+        <v>0.00232737542291079</v>
+      </c>
+      <c r="P26">
+        <v>0.00232737542291079</v>
+      </c>
+      <c r="Q26">
+        <v>0.05551944631644445</v>
+      </c>
+      <c r="R26">
+        <v>0.499675016848</v>
+      </c>
+      <c r="S26">
+        <v>5.570618460135655E-06</v>
+      </c>
+      <c r="T26">
+        <v>5.570618460135655E-06</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>97.08690133333334</v>
+      </c>
+      <c r="H27">
+        <v>291.260704</v>
+      </c>
+      <c r="I27">
+        <v>0.301130755038383</v>
+      </c>
+      <c r="J27">
+        <v>0.301130755038383</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>21.110155</v>
+      </c>
+      <c r="N27">
+        <v>63.330465</v>
+      </c>
+      <c r="O27">
+        <v>0.6828970503646842</v>
+      </c>
+      <c r="P27">
+        <v>0.6828970503646841</v>
+      </c>
+      <c r="Q27">
+        <v>2049.519535616374</v>
+      </c>
+      <c r="R27">
+        <v>18445.67582054736</v>
+      </c>
+      <c r="S27">
+        <v>0.205641304389802</v>
+      </c>
+      <c r="T27">
+        <v>0.205641304389802</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>97.08690133333334</v>
+      </c>
+      <c r="H28">
+        <v>291.260704</v>
+      </c>
+      <c r="I28">
+        <v>0.301130755038383</v>
+      </c>
+      <c r="J28">
+        <v>0.301130755038383</v>
+      </c>
+      <c r="K28">
+        <v>1</v>
+      </c>
+      <c r="L28">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M28">
+        <v>0.3162533333333333</v>
+      </c>
+      <c r="N28">
+        <v>0.94876</v>
+      </c>
+      <c r="O28">
+        <v>0.01023054868622862</v>
+      </c>
+      <c r="P28">
+        <v>0.01023054868622862</v>
+      </c>
+      <c r="Q28">
+        <v>30.70405616967112</v>
+      </c>
+      <c r="R28">
+        <v>276.3365055270401</v>
+      </c>
+      <c r="S28">
+        <v>0.003080732850340963</v>
+      </c>
+      <c r="T28">
+        <v>0.003080732850340962</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>97.08690133333334</v>
+      </c>
+      <c r="H29">
+        <v>291.260704</v>
+      </c>
+      <c r="I29">
+        <v>0.301130755038383</v>
+      </c>
+      <c r="J29">
+        <v>0.301130755038383</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M29">
+        <v>0.131037</v>
+      </c>
+      <c r="N29">
+        <v>0.393111</v>
+      </c>
+      <c r="O29">
+        <v>0.004238944753775475</v>
+      </c>
+      <c r="P29">
+        <v>0.004238944753775475</v>
+      </c>
+      <c r="Q29">
+        <v>12.721976290016</v>
+      </c>
+      <c r="R29">
+        <v>114.497786610144</v>
+      </c>
+      <c r="S29">
+        <v>0.001276476634270401</v>
+      </c>
+      <c r="T29">
+        <v>0.001276476634270401</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>97.08690133333334</v>
+      </c>
+      <c r="H30">
+        <v>291.260704</v>
+      </c>
+      <c r="I30">
+        <v>0.301130755038383</v>
+      </c>
+      <c r="J30">
+        <v>0.301130755038383</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>9.283255666666667</v>
+      </c>
+      <c r="N30">
+        <v>27.849767</v>
+      </c>
+      <c r="O30">
+        <v>0.3003060807724011</v>
+      </c>
+      <c r="P30">
+        <v>0.3003060807724011</v>
+      </c>
+      <c r="Q30">
+        <v>901.2825269617744</v>
+      </c>
+      <c r="R30">
+        <v>8111.542742655969</v>
+      </c>
+      <c r="S30">
+        <v>0.09043139684561077</v>
+      </c>
+      <c r="T30">
+        <v>0.09043139684561076</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>97.08690133333334</v>
+      </c>
+      <c r="H31">
+        <v>291.260704</v>
+      </c>
+      <c r="I31">
+        <v>0.301130755038383</v>
+      </c>
+      <c r="J31">
+        <v>0.301130755038383</v>
+      </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
+      <c r="L31">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M31">
+        <v>0.07194533333333333</v>
+      </c>
+      <c r="N31">
+        <v>0.215836</v>
+      </c>
+      <c r="O31">
+        <v>0.00232737542291079</v>
+      </c>
+      <c r="P31">
+        <v>0.00232737542291079</v>
+      </c>
+      <c r="Q31">
+        <v>6.984949478727112</v>
+      </c>
+      <c r="R31">
+        <v>62.86454530854401</v>
+      </c>
+      <c r="S31">
+        <v>0.000700844318358902</v>
+      </c>
+      <c r="T31">
+        <v>0.000700844318358902</v>
       </c>
     </row>
   </sheetData>
